--- a/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品出口销售收入.xlsx
+++ b/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按行业分规模以上工业企业新产品出口销售收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,1137 +628,1093 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5093861.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21612716.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3159888.1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1258787.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6666167.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1375161.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2424277.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>211688.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1669939.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>879144.5</v>
+      </c>
       <c r="L2" t="n">
-        <v>53122000</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+        <v>202230938.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1220726.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>954128.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3253270.9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1896</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>374461.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2790811.1</v>
+      </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>32325.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>842514.4</v>
+      </c>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>45023.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>23161204.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1264770.9</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>37031.6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2102.4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6164165</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>953207</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>96385715.59999999</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7452655.2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1073575.8</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2952550</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1899670</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5239.6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>930873.2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>214597.3</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5866789.5</v>
+      </c>
       <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6428327.9</v>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1199277.7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8009253.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1106669.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2933596.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>227750.6</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1130409.7</v>
+      </c>
       <c r="L3" t="n">
-        <v>140816000</v>
+        <v>218941519.3</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>3909708.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>558121.1</v>
+      </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>41206.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>736899</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>46076.9</v>
+      </c>
+      <c r="X3" t="n">
+        <v>22507520.7</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>49335.8</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>6295479.9</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>105419212.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9579730.1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>923184.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4066462</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2588919.9</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>5969.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1298583.7</v>
+      </c>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>7605736.2</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8280087.4</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1338445.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8136824.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1191032.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3168254.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>318939.5</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1524342.6</v>
+      </c>
       <c r="L4" t="n">
-        <v>115725000</v>
+        <v>228534683</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>3578179.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2103.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>523592</v>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>61447.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>507529.9</v>
+      </c>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>33378.1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>22512999.2</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>57765.8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>580</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>5578100.3</v>
+      </c>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>113450701.3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8871992.1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>866566.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4471631.3</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2778272.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6172.9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1280354</v>
+      </c>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>7545887.2</v>
+      </c>
       <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5093861.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>21612716.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3159888.1</v>
-      </c>
+        <v>7543519.6</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1258787.2</v>
+        <v>1509677.2</v>
       </c>
       <c r="F5" t="n">
-        <v>6666167.6</v>
+        <v>8910377.9</v>
       </c>
       <c r="G5" t="n">
-        <v>1375161.4</v>
+        <v>1374265.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2424277.2</v>
+        <v>3194422</v>
       </c>
       <c r="I5" t="n">
-        <v>211688.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1669939.4</v>
-      </c>
+        <v>380125.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>879144.5</v>
+        <v>1595520.7</v>
       </c>
       <c r="L5" t="n">
-        <v>202230938.1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1220726.5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>954128.7</v>
-      </c>
+        <v>269043782.5</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>3253270.9</v>
+        <v>3635328.1</v>
       </c>
       <c r="P5" t="n">
-        <v>1896</v>
+        <v>10801.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>374461.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2790811.1</v>
-      </c>
+        <v>689355.4</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>32325.8</v>
+        <v>38638.2</v>
       </c>
       <c r="U5" t="n">
-        <v>842514.4</v>
+        <v>362210.9</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>45023.4</v>
+        <v>33773.3</v>
       </c>
       <c r="X5" t="n">
-        <v>23161204.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1264770.9</v>
-      </c>
+        <v>27047272.9</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>37031.6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2102.4</v>
-      </c>
+        <v>42732.2</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>6164165</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>953207</v>
-      </c>
+        <v>6753510.9</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>96385715.59999999</v>
+        <v>138749123.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>7452655.2</v>
+        <v>9798770.9</v>
       </c>
       <c r="AF5" t="n">
-        <v>1073575.8</v>
+        <v>1161912.7</v>
       </c>
       <c r="AG5" t="n">
-        <v>2952550</v>
+        <v>5146222.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>1899670</v>
+        <v>2718396.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>5239.6</v>
+        <v>6120.1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>930873.2</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>214597.3</v>
-      </c>
+        <v>1214700.3</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>5866789.5</v>
-      </c>
-      <c r="AM5" t="inlineStr"/>
+        <v>8863480.4</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>739.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6428327.9</v>
+        <v>8550488.300000001</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1199277.7</v>
+        <v>1294526</v>
       </c>
       <c r="F6" t="n">
-        <v>8009253.6</v>
+        <v>9853104.699999999</v>
       </c>
       <c r="G6" t="n">
-        <v>1106669.7</v>
+        <v>1463103</v>
       </c>
       <c r="H6" t="n">
-        <v>2933596.2</v>
+        <v>3725503.2</v>
       </c>
       <c r="I6" t="n">
-        <v>227750.6</v>
+        <v>575443.3</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>1130409.7</v>
+        <v>1853635.2</v>
       </c>
       <c r="L6" t="n">
-        <v>218941519.3</v>
+        <v>291326776.3</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>3909708.8</v>
+        <v>3789118.9</v>
       </c>
       <c r="P6" t="n">
-        <v>4600</v>
+        <v>331.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>558121.1</v>
+        <v>778746.7</v>
       </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>554.1</v>
+      </c>
       <c r="T6" t="n">
-        <v>41206.2</v>
+        <v>113980.8</v>
       </c>
       <c r="U6" t="n">
-        <v>736899</v>
+        <v>227436</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>46076.9</v>
+        <v>622.4</v>
       </c>
       <c r="X6" t="n">
-        <v>22507520.7</v>
+        <v>29407862</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>49335.8</v>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+        <v>43776.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11385.7</v>
+      </c>
       <c r="AB6" t="n">
-        <v>6295479.9</v>
+        <v>5985370.3</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>105419212.5</v>
+        <v>156134829</v>
       </c>
       <c r="AE6" t="n">
-        <v>9579730.1</v>
+        <v>10058277.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>923184.5</v>
+        <v>1109189.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>4066462</v>
+        <v>5127304</v>
       </c>
       <c r="AH6" t="n">
-        <v>2588919.9</v>
+        <v>2978871.9</v>
       </c>
       <c r="AI6" t="n">
-        <v>5969.2</v>
+        <v>7476.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1298583.7</v>
+        <v>1080976.6</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
-        <v>7605736.2</v>
+        <v>7217099.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.2</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8280087.4</v>
+        <v>8290407.2</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1338445.8</v>
+        <v>1627775.1</v>
       </c>
       <c r="F7" t="n">
-        <v>8136824.3</v>
+        <v>11826737.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1191032.9</v>
+        <v>1506909.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3168254.7</v>
+        <v>4896556</v>
       </c>
       <c r="I7" t="n">
-        <v>318939.5</v>
+        <v>917223.9</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1524342.6</v>
+        <v>2720977</v>
       </c>
       <c r="L7" t="n">
-        <v>228534683</v>
+        <v>327130958.4</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>3578179.1</v>
+        <v>4042202.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2103.4</v>
+        <v>3144.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>523592</v>
+        <v>884388.9</v>
       </c>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>637.5</v>
+      </c>
       <c r="T7" t="n">
-        <v>61447.1</v>
+        <v>145066.2</v>
       </c>
       <c r="U7" t="n">
-        <v>507529.9</v>
+        <v>261761</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>33378.1</v>
+        <v>78092.10000000001</v>
       </c>
       <c r="X7" t="n">
-        <v>22512999.2</v>
+        <v>35036891.7</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>57765.8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>580</v>
-      </c>
+        <v>89505.60000000001</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>5578100.3</v>
+        <v>7228701.7</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>113450701.3</v>
+        <v>165812666.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8871992.1</v>
+        <v>12212339.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>866566.4</v>
+        <v>2137418.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>4471631.3</v>
+        <v>6296435.1</v>
       </c>
       <c r="AH7" t="n">
-        <v>2778272.5</v>
+        <v>3598515.6</v>
       </c>
       <c r="AI7" t="n">
-        <v>6172.9</v>
+        <v>16834.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1280354</v>
+        <v>1189634.3</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
-        <v>7545887.2</v>
-      </c>
-      <c r="AM7" t="inlineStr"/>
+        <v>8321577.8</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>16723</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7543519.6</v>
+        <v>10100462.4</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1509677.2</v>
+        <v>1677883.5</v>
       </c>
       <c r="F8" t="n">
-        <v>8910377.9</v>
+        <v>11995171.7</v>
       </c>
       <c r="G8" t="n">
-        <v>1374265.7</v>
+        <v>1460212.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3194422</v>
+        <v>4996441.6</v>
       </c>
       <c r="I8" t="n">
-        <v>380125.5</v>
+        <v>1044211.7</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>1595520.7</v>
+        <v>3639732.5</v>
       </c>
       <c r="L8" t="n">
-        <v>269043782.5</v>
+        <v>349447537.4</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>3635328.1</v>
+        <v>4584691.7</v>
       </c>
       <c r="P8" t="n">
-        <v>10801.1</v>
+        <v>13.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>689355.4</v>
+        <v>755775.7</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>38638.2</v>
+        <v>29213.7</v>
       </c>
       <c r="U8" t="n">
-        <v>362210.9</v>
+        <v>254303</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>33773.3</v>
+        <v>16694.8</v>
       </c>
       <c r="X8" t="n">
-        <v>27047272.9</v>
+        <v>40376313.5</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>42732.2</v>
+        <v>330056.7</v>
       </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>6753510.9</v>
+        <v>7141578.3</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>138749123.8</v>
+        <v>175435291.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>9798770.9</v>
+        <v>13189300.9</v>
       </c>
       <c r="AF8" t="n">
-        <v>1161912.7</v>
+        <v>1701062.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5146222.6</v>
+        <v>6489918.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>2718396.7</v>
+        <v>4698916.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>6120.1</v>
+        <v>20979.7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1214700.3</v>
+        <v>1401013.6</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
-        <v>8863480.4</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>739.2</v>
-      </c>
+        <v>8090521.6</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8550488.300000001</v>
+        <v>11634031.9</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1294526</v>
+        <v>1585970.4</v>
       </c>
       <c r="F9" t="n">
-        <v>9853104.699999999</v>
+        <v>11818653.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1463103</v>
+        <v>1792916.9</v>
       </c>
       <c r="H9" t="n">
-        <v>3725503.2</v>
+        <v>4872273.8</v>
       </c>
       <c r="I9" t="n">
-        <v>575443.3</v>
+        <v>1376944.1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>1853635.2</v>
+        <v>3870079.8</v>
       </c>
       <c r="L9" t="n">
-        <v>291326776.3</v>
+        <v>361608191.1</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>3789118.9</v>
+        <v>5368811.2</v>
       </c>
       <c r="P9" t="n">
-        <v>331.1</v>
+        <v>1335.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>778746.7</v>
+        <v>819722.9</v>
       </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>554.1</v>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>113980.8</v>
+        <v>39932.7</v>
       </c>
       <c r="U9" t="n">
-        <v>227436</v>
+        <v>92144.60000000001</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>622.4</v>
+        <v>7200.5</v>
       </c>
       <c r="X9" t="n">
-        <v>29407862</v>
+        <v>45409743.3</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>43776.7</v>
+        <v>567111.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>11385.7</v>
+        <v>320</v>
       </c>
       <c r="AB9" t="n">
-        <v>5985370.3</v>
+        <v>7315128.5</v>
       </c>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>156134829</v>
+        <v>176358232.8</v>
       </c>
       <c r="AE9" t="n">
-        <v>10058277.7</v>
+        <v>15063913.4</v>
       </c>
       <c r="AF9" t="n">
-        <v>1109189.2</v>
+        <v>1588980.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>5127304</v>
+        <v>8978024.199999999</v>
       </c>
       <c r="AH9" t="n">
-        <v>2978871.9</v>
+        <v>4805807.9</v>
       </c>
       <c r="AI9" t="n">
-        <v>7476.5</v>
+        <v>29915.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1080976.6</v>
+        <v>1385170.7</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>7217099.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>101.1</v>
-      </c>
+        <v>6737600.9</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8290407.2</v>
+        <v>11862951.4</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1627775.1</v>
+        <v>1870545.6</v>
       </c>
       <c r="F10" t="n">
-        <v>11826737.8</v>
+        <v>11371433.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1506909.6</v>
+        <v>2434445.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4896556</v>
+        <v>5537529.8</v>
       </c>
       <c r="I10" t="n">
-        <v>917223.9</v>
+        <v>1603034.9</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2720977</v>
+        <v>3981194.6</v>
       </c>
       <c r="L10" t="n">
-        <v>327130958.4</v>
+        <v>392692887.9</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>4042202.5</v>
+        <v>4921919.5</v>
       </c>
       <c r="P10" t="n">
-        <v>3144.5</v>
+        <v>5146.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>884388.9</v>
+        <v>1095529.1</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>637.5</v>
+        <v>1690</v>
       </c>
       <c r="T10" t="n">
-        <v>145066.2</v>
+        <v>168210.5</v>
       </c>
       <c r="U10" t="n">
-        <v>261761</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>1486275</v>
+      </c>
+      <c r="V10" t="n">
+        <v>100.8</v>
+      </c>
       <c r="W10" t="n">
-        <v>78092.10000000001</v>
+        <v>32413.4</v>
       </c>
       <c r="X10" t="n">
-        <v>35036891.7</v>
+        <v>51763381.1</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>89505.60000000001</v>
+        <v>2994293.1</v>
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="n">
-        <v>7228701.7</v>
+        <v>8228462.3</v>
       </c>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>165812666.2</v>
+        <v>181935898.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>12212339.6</v>
+        <v>16952769.4</v>
       </c>
       <c r="AF10" t="n">
-        <v>2137418.1</v>
+        <v>1846276.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>6296435.1</v>
+        <v>10492485.8</v>
       </c>
       <c r="AH10" t="n">
-        <v>3598515.6</v>
+        <v>5739005.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>16834.5</v>
+        <v>34894</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1189634.3</v>
+        <v>1685006</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
-        <v>8321577.8</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>16723</v>
-      </c>
+        <v>7810863.9</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10100462.4</v>
+        <v>14533410</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1677883.5</v>
+        <v>2040135</v>
       </c>
       <c r="F11" t="n">
-        <v>11995171.7</v>
+        <v>12515224.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1460212.6</v>
+        <v>1432309.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4996441.6</v>
+        <v>8891751.800000001</v>
       </c>
       <c r="I11" t="n">
-        <v>1044211.7</v>
+        <v>1456811.2</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>3639732.5</v>
+        <v>4147279</v>
       </c>
       <c r="L11" t="n">
-        <v>349447537.4</v>
+        <v>438532722.8</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>4584691.7</v>
+        <v>3772429.2</v>
       </c>
       <c r="P11" t="n">
-        <v>13.3</v>
+        <v>9745.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>755775.7</v>
+        <v>1232593.1</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>29213.7</v>
+        <v>39954</v>
       </c>
       <c r="U11" t="n">
-        <v>254303</v>
+        <v>27320.4</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>16694.8</v>
+        <v>28786.1</v>
       </c>
       <c r="X11" t="n">
-        <v>40376313.5</v>
+        <v>53100566.6</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>330056.7</v>
-      </c>
-      <c r="AA11" t="inlineStr"/>
+        <v>1915049</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>33976.9</v>
+      </c>
       <c r="AB11" t="n">
-        <v>7141578.3</v>
+        <v>8352699.5</v>
       </c>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>175435291.7</v>
+        <v>223295269.9</v>
       </c>
       <c r="AE11" t="n">
-        <v>13189300.9</v>
+        <v>17188562.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1701062.8</v>
+        <v>1738084</v>
       </c>
       <c r="AG11" t="n">
-        <v>6489918.5</v>
+        <v>10640177.9</v>
       </c>
       <c r="AH11" t="n">
-        <v>4698916.2</v>
+        <v>5480167.2</v>
       </c>
       <c r="AI11" t="n">
-        <v>20979.7</v>
+        <v>38589.6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1401013.6</v>
+        <v>2247178.7</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
-        <v>8090521.6</v>
+        <v>4866268.8</v>
       </c>
       <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11634031.9</v>
+        <v>17062692.3</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1585970.4</v>
+        <v>1833258.5</v>
       </c>
       <c r="F12" t="n">
-        <v>11818653.9</v>
+        <v>16762238.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1792916.9</v>
+        <v>2110671.2</v>
       </c>
       <c r="H12" t="n">
-        <v>4872273.8</v>
+        <v>20550161.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1376944.1</v>
+        <v>1654182.5</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>3870079.8</v>
+        <v>4966316.2</v>
       </c>
       <c r="L12" t="n">
-        <v>361608191.1</v>
+        <v>524170891.3</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>5368811.2</v>
+        <v>5429955.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1335.2</v>
+        <v>4955.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>819722.9</v>
+        <v>1412679.4</v>
       </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>176.9</v>
+      </c>
       <c r="T12" t="n">
-        <v>39932.7</v>
+        <v>119407.1</v>
       </c>
       <c r="U12" t="n">
-        <v>92144.60000000001</v>
+        <v>29107</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>7200.5</v>
+        <v>86241.2</v>
       </c>
       <c r="X12" t="n">
-        <v>45409743.3</v>
+        <v>69944082.09999999</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>567111.4</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>320</v>
-      </c>
+        <v>2399632.9</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>7315128.5</v>
+        <v>8727512.4</v>
       </c>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>176358232.8</v>
+        <v>250387159.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>15063913.4</v>
+        <v>21720613.3</v>
       </c>
       <c r="AF12" t="n">
-        <v>1588980.4</v>
+        <v>2081380.8</v>
       </c>
       <c r="AG12" t="n">
-        <v>8978024.199999999</v>
+        <v>15073473.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>4805807.9</v>
+        <v>6035569.4</v>
       </c>
       <c r="AI12" t="n">
-        <v>29915.2</v>
+        <v>59706.6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1385170.7</v>
+        <v>2624865.9</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
-        <v>6737600.9</v>
+        <v>6583742.5</v>
       </c>
       <c r="AM12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11862951.4</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1870545.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>11371433.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2434445.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5537529.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1603034.9</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3981194.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>392692887.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>4921919.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5146.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1095529.1</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1690</v>
-      </c>
-      <c r="T13" t="n">
-        <v>168210.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1486275</v>
-      </c>
-      <c r="V13" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>32413.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>51763381.1</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="n">
-        <v>2994293.1</v>
-      </c>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="n">
-        <v>8228462.3</v>
-      </c>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>181935898.6</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16952769.4</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1846276.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10492485.8</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>5739005.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34894</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1685006</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="n">
-        <v>7810863.9</v>
-      </c>
-      <c r="AM13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>14533410</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>2040135</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12515224.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1432309.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8891751.800000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1456811.2</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>4147279</v>
-      </c>
-      <c r="L14" t="n">
-        <v>438532722.8</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>3772429.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>9745.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1232593.1</v>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>39954</v>
-      </c>
-      <c r="U14" t="n">
-        <v>27320.4</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>28786.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>53100566.6</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="n">
-        <v>1915049</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>33976.9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8352699.5</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>223295269.9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17188562.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1738084</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10640177.9</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5480167.2</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>38589.6</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>2247178.7</v>
-      </c>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="n">
-        <v>4866268.8</v>
-      </c>
-      <c r="AM14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
